--- a/dados/ibge_cost_transbordo_porto.xlsx
+++ b/dados/ibge_cost_transbordo_porto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documents\IC\Progs\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47888DCD-E20F-46E4-9FB2-2C027048EF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DCDBF4-0052-4C92-B17A-6DCBAC4E2642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A667136-E038-44F4-A41D-CD70600D2509}"/>
   </bookViews>
@@ -110,7 +110,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +124,13 @@
     <font>
       <sz val="11"/>
       <color indexed="64"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,16 +153,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{23A6120A-015E-4DDC-96C8-13D370806CB9}"/>
+    <cellStyle name="Vírgula 2" xfId="2" xr:uid="{0A86A1DF-CA5D-4BC4-9FC2-89505DB39C09}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49E67F1-3B97-4BA4-8DD3-F58E7425F0F7}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,25 +542,25 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1000000</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C2" s="1">
         <v>1000000</v>
       </c>
       <c r="D2">
-        <v>92.36</v>
-      </c>
-      <c r="E2">
-        <v>1000000</v>
-      </c>
-      <c r="F2">
-        <v>1000000</v>
-      </c>
-      <c r="G2">
-        <v>1000000</v>
-      </c>
-      <c r="H2">
+        <v>79.28</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H2" s="1">
         <v>1000000</v>
       </c>
       <c r="I2">
@@ -571,24 +584,24 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>170.61</v>
+        <v>153.32</v>
       </c>
       <c r="C3">
-        <v>170.61</v>
+        <v>170.01</v>
       </c>
       <c r="D3">
-        <v>116.93</v>
+        <v>95.63</v>
       </c>
       <c r="E3">
-        <v>170.61</v>
-      </c>
-      <c r="F3">
-        <v>1000000</v>
-      </c>
-      <c r="G3">
-        <v>1000000</v>
-      </c>
-      <c r="H3">
+        <v>125.06</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H3" s="1">
         <v>1000000</v>
       </c>
       <c r="I3">
@@ -612,24 +625,24 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>170.61</v>
+        <v>139.27000000000001</v>
       </c>
       <c r="C4">
-        <v>170.61</v>
+        <v>155.63999999999999</v>
       </c>
       <c r="D4">
-        <v>170.61</v>
+        <v>109.68</v>
       </c>
       <c r="E4">
-        <v>170.61</v>
-      </c>
-      <c r="F4">
-        <v>1000000</v>
-      </c>
-      <c r="G4">
-        <v>1000000</v>
-      </c>
-      <c r="H4">
+        <v>111.01</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H4" s="1">
         <v>1000000</v>
       </c>
       <c r="I4">
@@ -653,24 +666,24 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>170.61</v>
+        <v>130.96</v>
       </c>
       <c r="C5">
-        <v>170.61</v>
+        <v>147.33000000000001</v>
       </c>
       <c r="D5">
-        <v>170.61</v>
+        <v>117.99</v>
       </c>
       <c r="E5">
-        <v>170.61</v>
-      </c>
-      <c r="F5">
-        <v>1000000</v>
-      </c>
-      <c r="G5">
-        <v>1000000</v>
-      </c>
-      <c r="H5">
+        <v>119.32</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H5" s="1">
         <v>1000000</v>
       </c>
       <c r="I5">
@@ -694,24 +707,24 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>170.61</v>
+        <v>111.78</v>
       </c>
       <c r="C6">
-        <v>170.61</v>
+        <v>123.23</v>
       </c>
       <c r="D6">
-        <v>170.61</v>
+        <v>142.41</v>
       </c>
       <c r="E6">
-        <v>170.61</v>
-      </c>
-      <c r="F6">
-        <v>1000000</v>
-      </c>
-      <c r="G6">
-        <v>1000000</v>
-      </c>
-      <c r="H6">
+        <v>143.41999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H6" s="1">
         <v>1000000</v>
       </c>
       <c r="I6">
@@ -735,24 +748,24 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>116.93</v>
+        <v>84.05</v>
       </c>
       <c r="C7">
-        <v>170.61</v>
+        <v>111.5</v>
       </c>
       <c r="D7">
-        <v>170.61</v>
+        <v>154.13999999999999</v>
       </c>
       <c r="E7">
-        <v>170.61</v>
-      </c>
-      <c r="F7">
-        <v>1000000</v>
-      </c>
-      <c r="G7">
-        <v>1000000</v>
-      </c>
-      <c r="H7">
+        <v>155.15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H7" s="1">
         <v>1000000</v>
       </c>
       <c r="I7">
@@ -776,24 +789,24 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>116.93</v>
+        <v>93.82</v>
       </c>
       <c r="C8">
-        <v>170.61</v>
+        <v>141.19</v>
       </c>
       <c r="D8">
-        <v>170.61</v>
+        <v>155.13</v>
       </c>
       <c r="E8">
-        <v>170.61</v>
-      </c>
-      <c r="F8">
-        <v>1000000</v>
-      </c>
-      <c r="G8">
-        <v>1000000</v>
-      </c>
-      <c r="H8">
+        <v>140.83000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H8" s="1">
         <v>1000000</v>
       </c>
       <c r="I8">
@@ -817,24 +830,24 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>92.36</v>
+        <v>81.64</v>
       </c>
       <c r="C9">
-        <v>170.61</v>
+        <v>166.33</v>
       </c>
       <c r="D9">
-        <v>170.61</v>
+        <v>167.1</v>
       </c>
       <c r="E9">
-        <v>170.61</v>
-      </c>
-      <c r="F9">
-        <v>1000000</v>
-      </c>
-      <c r="G9">
-        <v>1000000</v>
-      </c>
-      <c r="H9">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="1">
         <v>1000000</v>
       </c>
       <c r="I9">
@@ -857,25 +870,25 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1000000</v>
       </c>
       <c r="C10">
-        <v>92.36</v>
-      </c>
-      <c r="D10">
-        <v>1000000</v>
-      </c>
-      <c r="E10">
+        <v>64.77</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E10" s="1">
         <v>1000000</v>
       </c>
       <c r="F10">
-        <v>170.61</v>
-      </c>
-      <c r="G10">
-        <v>1000000</v>
-      </c>
-      <c r="H10">
+        <v>113.09</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H10" s="1">
         <v>1000000</v>
       </c>
       <c r="I10">
@@ -898,26 +911,26 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>1000000</v>
-      </c>
-      <c r="C11">
-        <v>1000000</v>
-      </c>
-      <c r="D11">
-        <v>1000000</v>
-      </c>
-      <c r="E11">
-        <v>1000000</v>
-      </c>
-      <c r="F11">
-        <v>1000000</v>
-      </c>
-      <c r="G11">
+      <c r="B11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G11" s="1">
         <v>1000000</v>
       </c>
       <c r="H11">
-        <v>92.36</v>
+        <v>67.87</v>
       </c>
       <c r="I11">
         <v>1000000</v>
@@ -939,26 +952,26 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>1000000</v>
-      </c>
-      <c r="C12">
-        <v>1000000</v>
-      </c>
-      <c r="D12">
-        <v>1000000</v>
-      </c>
-      <c r="E12">
-        <v>1000000</v>
-      </c>
-      <c r="F12">
+      <c r="B12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F12" s="1">
         <v>1000000</v>
       </c>
       <c r="G12">
-        <v>170.61</v>
+        <v>142.96</v>
       </c>
       <c r="H12">
-        <v>92.36</v>
+        <v>69</v>
       </c>
       <c r="I12">
         <v>1000000</v>
